--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amare\Desktop\Sales_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18034C3-AADB-4F4D-B54C-1B38D482364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A13E1E-B55A-4595-BDB7-47A3EFB9E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SaleData" sheetId="14" r:id="rId1"/>
+    <sheet name="SaleData" sheetId="19" r:id="rId1"/>
+    <sheet name="Working Sheet" sheetId="14" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SaleData!$A$1:$H$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="32">
   <si>
     <t>Region</t>
   </si>
@@ -125,6 +129,9 @@
   <si>
     <t>Sale_amt</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,6 +222,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -228,7 +248,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +283,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -271,7 +317,169 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDDDDDD"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,6 +490,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0">
+  <autoFilter ref="A1:I66" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="6">
+      <calculatedColumnFormula>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E7FBA8C0-FBFB-4655-B61C-86FC11310A17}" name="Manager"/>
+    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="0">
+      <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,19 +834,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
@@ -631,10 +860,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -643,7 +872,7 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -651,10 +880,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="20">
         <v>43106</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -663,13 +892,13 @@
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="21">
         <v>95</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="19">
         <v>1198</v>
       </c>
       <c r="H2" s="15">
@@ -678,10 +907,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="20">
         <v>43123</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -690,13 +919,13 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="21">
         <v>50</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="19">
         <v>500</v>
       </c>
       <c r="H3" s="15">
@@ -705,10 +934,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="20">
         <v>43140</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -717,13 +946,13 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="21">
         <v>36</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="19">
         <v>1198</v>
       </c>
       <c r="H4" s="15">
@@ -732,10 +961,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="20">
         <v>43157</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -744,13 +973,13 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="21">
         <v>27</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="19">
         <v>225</v>
       </c>
       <c r="H5" s="15">
@@ -759,10 +988,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="20">
         <v>43174</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -771,13 +1000,13 @@
       <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="21">
         <v>56</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="19">
         <v>1198</v>
       </c>
       <c r="H6" s="15">
@@ -786,10 +1015,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="20">
         <v>43191</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -798,13 +1027,13 @@
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="21">
         <v>60</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="19">
         <v>500</v>
       </c>
       <c r="H7" s="15">
@@ -813,25 +1042,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="20">
         <v>43208</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="21">
         <v>75</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="19">
         <v>1198</v>
       </c>
       <c r="H8" s="15">
@@ -840,10 +1069,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="20">
         <v>43225</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -852,13 +1081,13 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="21">
         <v>90</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="19">
         <v>1198</v>
       </c>
       <c r="H9" s="15">
@@ -867,25 +1096,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="20">
         <v>43242</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="21">
         <v>32</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="19">
         <v>1198</v>
       </c>
       <c r="H10" s="15">
@@ -894,10 +1123,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="20">
         <v>43259</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -906,13 +1135,13 @@
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="21">
         <v>60</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="19">
         <v>500</v>
       </c>
       <c r="H11" s="15">
@@ -921,10 +1150,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="20">
         <v>43276</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -933,13 +1162,13 @@
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="21">
         <v>90</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="19">
         <v>1198</v>
       </c>
       <c r="H12" s="15">
@@ -948,25 +1177,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="20">
         <v>43293</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="21">
         <v>29</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="19">
         <v>500</v>
       </c>
       <c r="H13" s="15">
@@ -975,25 +1204,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="20">
         <v>43310</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="21">
         <v>81</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="19">
         <v>500</v>
       </c>
       <c r="H14" s="15">
@@ -1002,10 +1231,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="20">
         <v>43327</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1014,13 +1243,13 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="21">
         <v>35</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="19">
         <v>1198</v>
       </c>
       <c r="H15" s="15">
@@ -1029,25 +1258,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="20">
         <v>43344</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="19">
         <v>125</v>
       </c>
       <c r="H16" s="15">
@@ -1056,10 +1285,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="20">
         <v>43361</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1068,13 +1297,13 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="21">
         <v>16</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="19">
         <v>58.5</v>
       </c>
       <c r="H17" s="15">
@@ -1083,10 +1312,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="20">
         <v>43378</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1095,13 +1324,13 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="21">
         <v>28</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="19">
         <v>500</v>
       </c>
       <c r="H18" s="15">
@@ -1110,10 +1339,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="20">
         <v>43395</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1122,13 +1351,13 @@
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="21">
         <v>64</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="19">
         <v>225</v>
       </c>
       <c r="H19" s="15">
@@ -1137,10 +1366,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="20">
         <v>43412</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1149,13 +1378,13 @@
       <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="21">
         <v>15</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="19">
         <v>225</v>
       </c>
       <c r="H20" s="15">
@@ -1164,10 +1393,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="20">
         <v>43429</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1176,13 +1405,13 @@
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="21">
         <v>96</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="19">
         <v>58.5</v>
       </c>
       <c r="H21" s="15">
@@ -1191,10 +1420,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="20">
         <v>43446</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1203,13 +1432,13 @@
       <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="21">
         <v>67</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="19">
         <v>1198</v>
       </c>
       <c r="H22" s="15">
@@ -1218,25 +1447,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="20">
         <v>43463</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="21">
         <v>74</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="19">
         <v>58.5</v>
       </c>
       <c r="H23" s="15">
@@ -1245,10 +1474,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="20">
         <v>43480</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1257,13 +1486,13 @@
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="21">
         <v>46</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="19">
         <v>500</v>
       </c>
       <c r="H24" s="15">
@@ -1272,25 +1501,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="20">
         <v>43497</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="21">
         <v>87</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="19">
         <v>500</v>
       </c>
       <c r="H25" s="15">
@@ -1299,25 +1528,25 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="20">
         <v>43514</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="19">
         <v>500</v>
       </c>
       <c r="H26" s="15">
@@ -1326,10 +1555,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="20">
         <v>43531</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -1338,13 +1567,13 @@
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="21">
         <v>7</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="19">
         <v>500</v>
       </c>
       <c r="H27" s="15">
@@ -1353,10 +1582,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="20">
         <v>43548</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -1365,13 +1594,13 @@
       <c r="D28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="21">
         <v>50</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="19">
         <v>58.5</v>
       </c>
       <c r="H28" s="15">
@@ -1380,25 +1609,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="20">
         <v>43565</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="21">
         <v>66</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="19">
         <v>1198</v>
       </c>
       <c r="H29" s="15">
@@ -1407,25 +1636,25 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="20">
         <v>43582</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="21">
         <v>96</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="19">
         <v>225</v>
       </c>
       <c r="H30" s="15">
@@ -1434,10 +1663,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="20">
         <v>43599</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -1446,13 +1675,13 @@
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="21">
         <v>53</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="19">
         <v>1198</v>
       </c>
       <c r="H31" s="15">
@@ -1461,10 +1690,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="20">
         <v>43616</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -1473,13 +1702,13 @@
       <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="21">
         <v>80</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="19">
         <v>500</v>
       </c>
       <c r="H32" s="15">
@@ -1488,10 +1717,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="20">
         <v>43633</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1500,13 +1729,13 @@
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="21">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19">
         <v>125</v>
       </c>
       <c r="H33" s="15">
@@ -1515,25 +1744,25 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="20">
         <v>43650</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="21">
         <v>62</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="19">
         <v>58.5</v>
       </c>
       <c r="H34" s="15">
@@ -1542,10 +1771,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="20">
         <v>43667</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -1554,13 +1783,13 @@
       <c r="D35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="21">
         <v>55</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="19">
         <v>58.5</v>
       </c>
       <c r="H35" s="15">
@@ -1569,10 +1798,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="20">
         <v>43684</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -1581,13 +1810,13 @@
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="21">
         <v>42</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="19">
         <v>58.5</v>
       </c>
       <c r="H36" s="15">
@@ -1596,10 +1825,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="20">
         <v>43701</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -1608,13 +1837,13 @@
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="21">
         <v>3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="19">
         <v>125</v>
       </c>
       <c r="H37" s="15">
@@ -1623,10 +1852,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="20">
         <v>43718</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -1635,13 +1864,13 @@
       <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="21">
         <v>7</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="19">
         <v>1198</v>
       </c>
       <c r="H38" s="15">
@@ -1650,10 +1879,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="20">
         <v>43735</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1662,13 +1891,13 @@
       <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="21">
         <v>76</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="19">
         <v>225</v>
       </c>
       <c r="H39" s="15">
@@ -1677,25 +1906,25 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="20">
         <v>43752</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="21">
         <v>57</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="19">
         <v>500</v>
       </c>
       <c r="H40" s="15">
@@ -1704,25 +1933,25 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="20">
         <v>43769</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="21">
         <v>14</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="19">
         <v>1198</v>
       </c>
       <c r="H41" s="15">
@@ -1731,10 +1960,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="20">
         <v>43786</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -1743,13 +1972,13 @@
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="21">
         <v>11</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="19">
         <v>500</v>
       </c>
       <c r="H42" s="15">
@@ -1758,10 +1987,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="20">
         <v>43803</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -1770,13 +1999,13 @@
       <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="21">
         <v>94</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="19">
         <v>500</v>
       </c>
       <c r="H43" s="15">
@@ -1785,25 +2014,25 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="20">
         <v>43820</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="21">
         <v>28</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="19">
         <v>500</v>
       </c>
       <c r="H44" s="15">
@@ -1823,6 +2052,2058 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>95</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I2" s="15">
+        <f>G2*H2</f>
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <v>500</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I44" si="0">G3*H3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5">
+        <v>225</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>67088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5">
+        <v>500</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>38336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="5">
+        <v>500</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5">
+        <v>500</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43310</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <v>81</v>
+      </c>
+      <c r="H14" s="5">
+        <v>500</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3">
+        <v>35</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>125</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5">
+        <v>225</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
+        <v>225</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43429</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <v>96</v>
+      </c>
+      <c r="H21" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="0"/>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>67</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="0"/>
+        <v>80266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>74</v>
+      </c>
+      <c r="H23" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46</v>
+      </c>
+      <c r="H24" s="5">
+        <v>500</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
+        <v>87</v>
+      </c>
+      <c r="H25" s="5">
+        <v>500</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>500</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>500</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43548</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
+        <v>50</v>
+      </c>
+      <c r="H28" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="0"/>
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="0"/>
+        <v>79068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43582</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>96</v>
+      </c>
+      <c r="H30" s="5">
+        <v>225</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>53</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="0"/>
+        <v>63494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
+        <v>80</v>
+      </c>
+      <c r="H32" s="5">
+        <v>500</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43633</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>125</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
+        <v>62</v>
+      </c>
+      <c r="H34" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="0"/>
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43667</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
+        <v>55</v>
+      </c>
+      <c r="H35" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="0"/>
+        <v>3217.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43684</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3">
+        <v>42</v>
+      </c>
+      <c r="H36" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="0"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43701</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>125</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="0"/>
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3">
+        <v>76</v>
+      </c>
+      <c r="H39" s="5">
+        <v>225</v>
+      </c>
+      <c r="I39" s="15">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3">
+        <v>57</v>
+      </c>
+      <c r="H40" s="5">
+        <v>500</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="3">
+        <v>14</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="0"/>
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43786</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5">
+        <v>500</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3">
+        <v>94</v>
+      </c>
+      <c r="H43" s="5">
+        <v>500</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43820</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>28</v>
+      </c>
+      <c r="H44" s="5">
+        <v>500</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="3">
+        <v>95</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I45" s="15">
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>56</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I46" s="15">
+        <v>67088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3">
+        <v>60</v>
+      </c>
+      <c r="H47" s="5">
+        <v>500</v>
+      </c>
+      <c r="I47" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I48" s="15">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="3">
+        <v>90</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I49" s="15">
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3">
+        <v>60</v>
+      </c>
+      <c r="H50" s="5">
+        <v>500</v>
+      </c>
+      <c r="I50" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3">
+        <v>90</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I51" s="15">
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="3">
+        <v>81</v>
+      </c>
+      <c r="H52" s="5">
+        <v>500</v>
+      </c>
+      <c r="I52" s="15">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3">
+        <v>64</v>
+      </c>
+      <c r="H53" s="5">
+        <v>225</v>
+      </c>
+      <c r="I53" s="15">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3">
+        <v>96</v>
+      </c>
+      <c r="H54" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I54" s="15">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3">
+        <v>67</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I55" s="15">
+        <v>80266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3">
+        <v>74</v>
+      </c>
+      <c r="H56" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I56" s="15">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="3">
+        <v>87</v>
+      </c>
+      <c r="H57" s="5">
+        <v>500</v>
+      </c>
+      <c r="I57" s="15">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3">
+        <v>66</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I58" s="15">
+        <v>79068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
+        <v>96</v>
+      </c>
+      <c r="H59" s="5">
+        <v>225</v>
+      </c>
+      <c r="I59" s="15">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3">
+        <v>53</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I60" s="15">
+        <v>63494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="3">
+        <v>80</v>
+      </c>
+      <c r="H61" s="5">
+        <v>500</v>
+      </c>
+      <c r="I61" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3">
+        <v>62</v>
+      </c>
+      <c r="H62" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I62" s="15">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3">
+        <v>55</v>
+      </c>
+      <c r="H63" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I63" s="15">
+        <v>3217.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3">
+        <v>76</v>
+      </c>
+      <c r="H64" s="5">
+        <v>225</v>
+      </c>
+      <c r="I64" s="15">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="3">
+        <v>57</v>
+      </c>
+      <c r="H65" s="5">
+        <v>500</v>
+      </c>
+      <c r="I65" s="15">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="3">
+        <v>94</v>
+      </c>
+      <c r="H66" s="5">
+        <v>500</v>
+      </c>
+      <c r="I66" s="18">
+        <v>47000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amare\Desktop\Sales_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A13E1E-B55A-4595-BDB7-47A3EFB9E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3724A500-8BF9-4C19-BA67-3F3323F4275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SaleData" sheetId="19" r:id="rId1"/>
     <sheet name="Working Sheet" sheetId="14" r:id="rId2"/>
+    <sheet name="Sales amount by region and item" sheetId="15" r:id="rId3"/>
+    <sheet name="Sales amount by year" sheetId="17" r:id="rId4"/>
+    <sheet name="Unit sales by year" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SaleData!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -130,16 +136,45 @@
     <t>Sale_amt</t>
   </si>
   <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Sale_amt</t>
+  </si>
+  <si>
+    <t>Sum of Units</t>
+  </si>
+  <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -248,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,11 +318,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -317,7 +359,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -492,21 +546,4727 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Sales amount by region and item!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales by Region &amp; Item</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Television</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1124922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-049D-42A8-867B-4EADB865880D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>342500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA2B-4E85-88E8-CD77268A63FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cell Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA2B-4E85-88E8-CD77268A63FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video Games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA2B-4E85-88E8-CD77268A63FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AA2B-4E85-88E8-CD77268A63FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="208145264"/>
+        <c:axId val="208148592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="208145264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208148592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208148592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208145264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Sales amount by year!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales by Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by year'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by year'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by year'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>879029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>426646.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347106.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FBF-46D6-B415-3499FB095028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2090098848"/>
+        <c:axId val="2090099680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090098848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090099680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090099680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090098848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Unit sales by year!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unit Sales by Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unit sales by year'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unit sales by year'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unit sales by year'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2273-4998-BDB6-316DE3326D0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="85889360"/>
+        <c:axId val="250333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85889360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85889360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060BC0E3-6D2C-43FA-BAFD-A32FB72AD3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C96E3D-09DF-477D-A5C4-F4CCD676558D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FF866E-07C3-4828-B2A3-A2B246B1FD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Amare" refreshedDate="45431.461881134259" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="65" xr:uid="{FEB6533F-DD5D-4771-B680-8D6A5C9880E1}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="OrderDate" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-06T00:00:00" maxDate="2021-12-05T00:00:00" count="65">
+        <d v="2018-01-06T00:00:00"/>
+        <d v="2018-01-23T00:00:00"/>
+        <d v="2018-02-09T00:00:00"/>
+        <d v="2018-02-26T00:00:00"/>
+        <d v="2018-03-15T00:00:00"/>
+        <d v="2018-04-01T00:00:00"/>
+        <d v="2018-04-18T00:00:00"/>
+        <d v="2018-05-05T00:00:00"/>
+        <d v="2018-05-22T00:00:00"/>
+        <d v="2018-06-08T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-07-12T00:00:00"/>
+        <d v="2018-07-29T00:00:00"/>
+        <d v="2018-08-15T00:00:00"/>
+        <d v="2018-09-01T00:00:00"/>
+        <d v="2018-09-18T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-22T00:00:00"/>
+        <d v="2018-11-08T00:00:00"/>
+        <d v="2018-11-25T00:00:00"/>
+        <d v="2018-12-12T00:00:00"/>
+        <d v="2018-12-29T00:00:00"/>
+        <d v="2019-01-15T00:00:00"/>
+        <d v="2019-02-01T00:00:00"/>
+        <d v="2019-02-18T00:00:00"/>
+        <d v="2019-03-07T00:00:00"/>
+        <d v="2019-03-24T00:00:00"/>
+        <d v="2019-04-10T00:00:00"/>
+        <d v="2019-04-27T00:00:00"/>
+        <d v="2019-05-14T00:00:00"/>
+        <d v="2019-05-31T00:00:00"/>
+        <d v="2019-06-17T00:00:00"/>
+        <d v="2019-07-04T00:00:00"/>
+        <d v="2019-07-21T00:00:00"/>
+        <d v="2019-08-07T00:00:00"/>
+        <d v="2019-08-24T00:00:00"/>
+        <d v="2019-09-10T00:00:00"/>
+        <d v="2019-09-27T00:00:00"/>
+        <d v="2019-10-14T00:00:00"/>
+        <d v="2019-10-31T00:00:00"/>
+        <d v="2019-11-17T00:00:00"/>
+        <d v="2019-12-04T00:00:00"/>
+        <d v="2019-12-21T00:00:00"/>
+        <d v="2020-01-06T00:00:00"/>
+        <d v="2020-03-15T00:00:00"/>
+        <d v="2020-04-01T00:00:00"/>
+        <d v="2020-04-18T00:00:00"/>
+        <d v="2020-05-05T00:00:00"/>
+        <d v="2020-06-08T00:00:00"/>
+        <d v="2020-06-25T00:00:00"/>
+        <d v="2020-07-29T00:00:00"/>
+        <d v="2020-10-22T00:00:00"/>
+        <d v="2020-11-25T00:00:00"/>
+        <d v="2020-12-12T00:00:00"/>
+        <d v="2020-12-29T00:00:00"/>
+        <d v="2021-02-01T00:00:00"/>
+        <d v="2021-04-10T00:00:00"/>
+        <d v="2021-04-27T00:00:00"/>
+        <d v="2021-05-14T00:00:00"/>
+        <d v="2021-05-31T00:00:00"/>
+        <d v="2021-07-04T00:00:00"/>
+        <d v="2021-07-21T00:00:00"/>
+        <d v="2021-09-27T00:00:00"/>
+        <d v="2021-10-14T00:00:00"/>
+        <d v="2021-12-04T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="164">
+      <sharedItems count="4">
+        <s v="2018"/>
+        <s v="2019"/>
+        <s v="2020"/>
+        <s v="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SalesMan" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Television"/>
+        <s v="Home Theater"/>
+        <s v="Cell Phone"/>
+        <s v="Desk"/>
+        <s v="Video Games"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Unit_price" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="58.5" maxValue="1198"/>
+    </cacheField>
+    <cacheField name="Sale_amt" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="250" maxValue="113810"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="371167283"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="1198"/>
+    <n v="113810"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="500"/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="1198"/>
+    <n v="43128"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="225"/>
+    <n v="6075"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="1198"/>
+    <n v="67088"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="1198"/>
+    <n v="89850"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Douglas"/>
+    <s v="Michael"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="1198"/>
+    <n v="38336"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Diana"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="500"/>
+    <n v="14500"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="500"/>
+    <n v="40500"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="1198"/>
+    <n v="41930"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="58.5"/>
+    <n v="936"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="500"/>
+    <n v="14000"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="2"/>
+    <n v="64"/>
+    <n v="225"/>
+    <n v="14400"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="225"/>
+    <n v="3375"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <x v="4"/>
+    <n v="96"/>
+    <n v="58.5"/>
+    <n v="5616"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="1198"/>
+    <n v="80266"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <x v="4"/>
+    <n v="74"/>
+    <n v="58.5"/>
+    <n v="4329"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="500"/>
+    <n v="23000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="500"/>
+    <n v="43500"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="500"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="500"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="58.5"/>
+    <n v="2925"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="1198"/>
+    <n v="79068"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Diana"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="225"/>
+    <n v="21600"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="1198"/>
+    <n v="63494"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="1"/>
+    <n v="80"/>
+    <n v="500"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="125"/>
+    <n v="625"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="4"/>
+    <n v="62"/>
+    <n v="58.5"/>
+    <n v="3627"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="58.5"/>
+    <n v="3217.5"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <x v="4"/>
+    <n v="42"/>
+    <n v="58.5"/>
+    <n v="2457"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1198"/>
+    <n v="8386"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="225"/>
+    <n v="17100"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Douglas"/>
+    <s v="Michael"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="500"/>
+    <n v="28500"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="1198"/>
+    <n v="16772"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="500"/>
+    <n v="5500"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="500"/>
+    <n v="47000"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="500"/>
+    <n v="14000"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="1198"/>
+    <n v="113810"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="1198"/>
+    <n v="67088"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="1198"/>
+    <n v="89850"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="500"/>
+    <n v="40500"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="2"/>
+    <n v="64"/>
+    <n v="225"/>
+    <n v="14400"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <x v="4"/>
+    <n v="96"/>
+    <n v="58.5"/>
+    <n v="5616"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="1198"/>
+    <n v="80266"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <x v="4"/>
+    <n v="74"/>
+    <n v="58.5"/>
+    <n v="4329"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="500"/>
+    <n v="43500"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="1198"/>
+    <n v="79068"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Diana"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="225"/>
+    <n v="21600"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="1198"/>
+    <n v="63494"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <x v="1"/>
+    <n v="80"/>
+    <n v="500"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <x v="4"/>
+    <n v="62"/>
+    <n v="58.5"/>
+    <n v="3627"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="58.5"/>
+    <n v="3217.5"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="225"/>
+    <n v="17100"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Douglas"/>
+    <s v="Michael"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="500"/>
+    <n v="28500"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="500"/>
+    <n v="47000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99C2C43B-4874-42E7-B24E-071397734EDF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="164" showAll="0">
+      <items count="66">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sale_amt" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{334BAEB5-389D-4EC1-987E-E7EB1573ABA2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sale_amt" fld="8" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E489020-174D-47CB-9642-33AEDDCA901F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0">
   <autoFilter ref="A1:I66" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="10">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{E7FBA8C0-FBFB-4655-B61C-86FC11310A17}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="4">
       <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -837,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,18 +5632,18 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="2" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
         <v>43106</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -892,13 +5652,13 @@
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="26">
         <v>95</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="24">
         <v>1198</v>
       </c>
       <c r="H2" s="15">
@@ -907,10 +5667,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="25">
         <v>43123</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -919,13 +5679,13 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="26">
         <v>50</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="24">
         <v>500</v>
       </c>
       <c r="H3" s="15">
@@ -934,10 +5694,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="25">
         <v>43140</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -946,13 +5706,13 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="26">
         <v>36</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="24">
         <v>1198</v>
       </c>
       <c r="H4" s="15">
@@ -961,10 +5721,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="25">
         <v>43157</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -973,13 +5733,13 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="26">
         <v>27</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="24">
         <v>225</v>
       </c>
       <c r="H5" s="15">
@@ -988,10 +5748,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="25">
         <v>43174</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1000,13 +5760,13 @@
       <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="26">
         <v>56</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="24">
         <v>1198</v>
       </c>
       <c r="H6" s="15">
@@ -1014,11 +5774,11 @@
         <v>67088</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+    <row r="7" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>43191</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1027,13 +5787,13 @@
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="26">
         <v>60</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="24">
         <v>500</v>
       </c>
       <c r="H7" s="15">
@@ -1042,25 +5802,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="25">
         <v>43208</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="26">
         <v>75</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="24">
         <v>1198</v>
       </c>
       <c r="H8" s="15">
@@ -1069,10 +5829,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="25">
         <v>43225</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1081,13 +5841,13 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="26">
         <v>90</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="24">
         <v>1198</v>
       </c>
       <c r="H9" s="15">
@@ -1096,25 +5856,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="25">
         <v>43242</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="26">
         <v>32</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="24">
         <v>1198</v>
       </c>
       <c r="H10" s="15">
@@ -1122,11 +5882,11 @@
         <v>38336</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>43259</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1135,13 +5895,13 @@
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="26">
         <v>60</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="24">
         <v>500</v>
       </c>
       <c r="H11" s="15">
@@ -1150,10 +5910,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="25">
         <v>43276</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1162,13 +5922,13 @@
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="26">
         <v>90</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="24">
         <v>1198</v>
       </c>
       <c r="H12" s="15">
@@ -1177,25 +5937,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="25">
         <v>43293</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="26">
         <v>29</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="24">
         <v>500</v>
       </c>
       <c r="H13" s="15">
@@ -1204,25 +5964,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="25">
         <v>43310</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="26">
         <v>81</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="24">
         <v>500</v>
       </c>
       <c r="H14" s="15">
@@ -1230,11 +5990,11 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>43327</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1243,13 +6003,13 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="26">
         <v>35</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="24">
         <v>1198</v>
       </c>
       <c r="H15" s="15">
@@ -1258,25 +6018,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="25">
         <v>43344</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="26">
         <v>2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="24">
         <v>125</v>
       </c>
       <c r="H16" s="15">
@@ -1284,11 +6044,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>43361</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1297,13 +6057,13 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="26">
         <v>16</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="24">
         <v>58.5</v>
       </c>
       <c r="H17" s="15">
@@ -1312,10 +6072,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="25">
         <v>43378</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1324,13 +6084,13 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="26">
         <v>28</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="24">
         <v>500</v>
       </c>
       <c r="H18" s="15">
@@ -1338,11 +6098,11 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+    <row r="19" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>43395</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1351,13 +6111,13 @@
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="26">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="24">
         <v>225</v>
       </c>
       <c r="H19" s="15">
@@ -1366,10 +6126,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="25">
         <v>43412</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1378,13 +6138,13 @@
       <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="26">
         <v>15</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="24">
         <v>225</v>
       </c>
       <c r="H20" s="15">
@@ -1393,10 +6153,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="25">
         <v>43429</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1405,13 +6165,13 @@
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="26">
         <v>96</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="24">
         <v>58.5</v>
       </c>
       <c r="H21" s="15">
@@ -1420,10 +6180,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="25">
         <v>43446</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1432,13 +6192,13 @@
       <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="26">
         <v>67</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="24">
         <v>1198</v>
       </c>
       <c r="H22" s="15">
@@ -1447,25 +6207,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="25">
         <v>43463</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="26">
         <v>74</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="24">
         <v>58.5</v>
       </c>
       <c r="H23" s="15">
@@ -1474,10 +6234,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="25">
         <v>43480</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1486,13 +6246,13 @@
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="26">
         <v>46</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="24">
         <v>500</v>
       </c>
       <c r="H24" s="15">
@@ -1501,25 +6261,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="25">
         <v>43497</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="26">
         <v>87</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="24">
         <v>500</v>
       </c>
       <c r="H25" s="15">
@@ -1527,26 +6287,26 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+    <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
         <v>43514</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="26">
         <v>4</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="24">
         <v>500</v>
       </c>
       <c r="H26" s="15">
@@ -1555,10 +6315,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="25">
         <v>43531</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -1567,13 +6327,13 @@
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="26">
         <v>7</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="24">
         <v>500</v>
       </c>
       <c r="H27" s="15">
@@ -1582,10 +6342,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="25">
         <v>43548</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -1594,13 +6354,13 @@
       <c r="D28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="26">
         <v>50</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="24">
         <v>58.5</v>
       </c>
       <c r="H28" s="15">
@@ -1609,25 +6369,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="A29" s="25">
         <v>43565</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="26">
         <v>66</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="24">
         <v>1198</v>
       </c>
       <c r="H29" s="15">
@@ -1636,25 +6396,25 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="A30" s="25">
         <v>43582</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="26">
         <v>96</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="24">
         <v>225</v>
       </c>
       <c r="H30" s="15">
@@ -1663,10 +6423,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="25">
         <v>43599</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -1675,13 +6435,13 @@
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="26">
         <v>53</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="24">
         <v>1198</v>
       </c>
       <c r="H31" s="15">
@@ -1690,10 +6450,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="A32" s="25">
         <v>43616</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -1702,13 +6462,13 @@
       <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="26">
         <v>80</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="24">
         <v>500</v>
       </c>
       <c r="H32" s="15">
@@ -1717,10 +6477,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="25">
         <v>43633</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1729,13 +6489,13 @@
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="26">
         <v>5</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="24">
         <v>125</v>
       </c>
       <c r="H33" s="15">
@@ -1743,26 +6503,26 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+    <row r="34" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
         <v>43650</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="26">
         <v>62</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="24">
         <v>58.5</v>
       </c>
       <c r="H34" s="15">
@@ -1771,10 +6531,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
+      <c r="A35" s="25">
         <v>43667</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -1783,13 +6543,13 @@
       <c r="D35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="26">
         <v>55</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="24">
         <v>58.5</v>
       </c>
       <c r="H35" s="15">
@@ -1798,10 +6558,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
+      <c r="A36" s="25">
         <v>43684</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -1810,13 +6570,13 @@
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="26">
         <v>42</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="24">
         <v>58.5</v>
       </c>
       <c r="H36" s="15">
@@ -1825,10 +6585,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
+      <c r="A37" s="25">
         <v>43701</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -1837,13 +6597,13 @@
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="26">
         <v>3</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="24">
         <v>125</v>
       </c>
       <c r="H37" s="15">
@@ -1852,10 +6612,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+      <c r="A38" s="25">
         <v>43718</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -1864,13 +6624,13 @@
       <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="26">
         <v>7</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="24">
         <v>1198</v>
       </c>
       <c r="H38" s="15">
@@ -1879,10 +6639,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
+      <c r="A39" s="25">
         <v>43735</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1891,13 +6651,13 @@
       <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="26">
         <v>76</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="24">
         <v>225</v>
       </c>
       <c r="H39" s="15">
@@ -1906,25 +6666,25 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20">
+      <c r="A40" s="25">
         <v>43752</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="26">
         <v>57</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="24">
         <v>500</v>
       </c>
       <c r="H40" s="15">
@@ -1933,25 +6693,25 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
+      <c r="A41" s="25">
         <v>43769</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="26">
         <v>14</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="24">
         <v>1198</v>
       </c>
       <c r="H41" s="15">
@@ -1960,10 +6720,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20">
+      <c r="A42" s="25">
         <v>43786</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -1972,13 +6732,13 @@
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="26">
         <v>11</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="24">
         <v>500</v>
       </c>
       <c r="H42" s="15">
@@ -1987,10 +6747,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20">
+      <c r="A43" s="25">
         <v>43803</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -1999,13 +6759,13 @@
       <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="26">
         <v>94</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="24">
         <v>500</v>
       </c>
       <c r="H43" s="15">
@@ -2014,25 +6774,25 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="25">
         <v>43820</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="26">
         <v>28</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="24">
         <v>500</v>
       </c>
       <c r="H44" s="15">
@@ -2059,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4080,10 +8840,10 @@
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -4095,7 +8855,7 @@
       <c r="H66" s="5">
         <v>500</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="22">
         <v>47000</v>
       </c>
     </row>
@@ -4104,6 +8864,420 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5EC0D2-B7FC-48F4-A8C5-DB512AE1DC56}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1124922</v>
+      </c>
+      <c r="C5" s="19">
+        <v>342500</v>
+      </c>
+      <c r="D5" s="19">
+        <v>6075</v>
+      </c>
+      <c r="E5" s="19">
+        <v>23049</v>
+      </c>
+      <c r="F5" s="19">
+        <v>875</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1497421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19">
+        <v>269550</v>
+      </c>
+      <c r="C6" s="19">
+        <v>217500</v>
+      </c>
+      <c r="D6" s="19">
+        <v>75375</v>
+      </c>
+      <c r="E6" s="19">
+        <v>16848</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>579273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>172512</v>
+      </c>
+      <c r="C7" s="19">
+        <v>60500</v>
+      </c>
+      <c r="D7" s="19">
+        <v>34200</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <v>375</v>
+      </c>
+      <c r="G7" s="19">
+        <v>267587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1566984</v>
+      </c>
+      <c r="C8" s="19">
+        <v>620500</v>
+      </c>
+      <c r="D8" s="19">
+        <v>115650</v>
+      </c>
+      <c r="E8" s="19">
+        <v>39897</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1250</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2344281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE30746-7E80-4AC0-A05E-F2AE03A98D5F}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="23">
+        <v>879029</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="23">
+        <v>426646.5</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="23">
+        <v>691499</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="23">
+        <v>347106.5</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2344281</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4546B3D-05DF-4C7B-A799-142821812F4B}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1178</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="18">
+        <v>943</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="18">
+        <v>908</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="18">
+        <v>726</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3755</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -8,25 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amare\Desktop\Sales_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3724A500-8BF9-4C19-BA67-3F3323F4275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B118C1F-1519-4D43-934E-37FBC9DE9F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SaleData" sheetId="19" r:id="rId1"/>
-    <sheet name="Working Sheet" sheetId="14" r:id="rId2"/>
-    <sheet name="Sales amount by region and item" sheetId="15" r:id="rId3"/>
-    <sheet name="Sales amount by year" sheetId="17" r:id="rId4"/>
-    <sheet name="Unit sales by year" sheetId="16" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="18" r:id="rId1"/>
+    <sheet name="SaleData" sheetId="19" state="hidden" r:id="rId2"/>
+    <sheet name="Working Sheet" sheetId="14" state="hidden" r:id="rId3"/>
+    <sheet name="Sales amount by region and item" sheetId="15" state="hidden" r:id="rId4"/>
+    <sheet name="Sales amount by year" sheetId="17" state="hidden" r:id="rId5"/>
+    <sheet name="Unit sales by year" sheetId="16" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SaleData!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SaleData!$A$1:$H$23</definedName>
+    <definedName name="NativeTimeline_OrderDate">#N/A</definedName>
+    <definedName name="Slicer_Item">#N/A</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId10"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -220,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +307,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,6 +354,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -359,13 +384,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -547,6 +566,2436 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Sales amount by region and item!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales by Region &amp; Item</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Television</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1124922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE42-4132-8041-8D72C94D9912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$C$5:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>342500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BED5-4F3E-A7D5-DFE680E1AB33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video Games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$D$5:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BED5-4F3E-A7D5-DFE680E1AB33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cell Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BED5-4F3E-A7D5-DFE680E1AB33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by region and item'!$F$5:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BED5-4F3E-A7D5-DFE680E1AB33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="208145264"/>
+        <c:axId val="208148592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="208145264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208148592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208148592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208145264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Sales amount by year!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales by Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales amount by year'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sales amount by year'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sales amount by year'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>879029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>426646.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347106.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AEF-46A1-9464-4E4A6DF7D0D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2090098848"/>
+        <c:axId val="2090099680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090098848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090099680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090099680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090098848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SaleData.xlsx]Unit sales by year!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unit Sales by Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unit sales by year'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unit sales by year'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unit sales by year'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-773D-43E9-9C02-EFCB31DDA013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="85889360"/>
+        <c:axId val="250333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85889360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85889360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -934,35 +3383,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales amount by region and item'!$B$5:$B$8</c:f>
+              <c:f>'Sales amount by region and item'!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1124922</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>269550</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>172512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,42 +3436,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales amount by region and item'!$C$5:$C$8</c:f>
+              <c:f>'Sales amount by region and item'!$C$5:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>342500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>217500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA2B-4E85-88E8-CD77268A63FA}"/>
+              <c16:uniqueId val="{00000001-F858-4BCB-AF64-75B9539369B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1047,7 +3472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cell Phone</c:v>
+                  <c:v>Video Games</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1064,42 +3489,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales amount by region and item'!$D$5:$D$8</c:f>
+              <c:f>'Sales amount by region and item'!$D$5:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34200</c:v>
+                  <c:v>23049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA2B-4E85-88E8-CD77268A63FA}"/>
+              <c16:uniqueId val="{00000002-F858-4BCB-AF64-75B9539369B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,7 +3525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Video Games</c:v>
+                  <c:v>Cell Phone</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,39 +3542,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales amount by region and item'!$E$5:$E$8</c:f>
+              <c:f>'Sales amount by region and item'!$E$5:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23049</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16848</c:v>
+                  <c:v>6075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AA2B-4E85-88E8-CD77268A63FA}"/>
+              <c16:uniqueId val="{00000003-F858-4BCB-AF64-75B9539369B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,39 +3595,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales amount by region and item'!$A$5:$A$8</c:f>
+              <c:f>'Sales amount by region and item'!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales amount by region and item'!$F$5:$F$8</c:f>
+              <c:f>'Sales amount by region and item'!$F$5:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA2B-4E85-88E8-CD77268A63FA}"/>
+              <c16:uniqueId val="{00000005-F858-4BCB-AF64-75B9539369B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1443,7 +3838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1838,7 +4233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2354,6 +4749,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3891,18 +6406,1907 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8DA899-F7D8-4F88-B4DB-EE56535CFDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B89564E-F944-4CA8-970E-F313B09FBFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276179</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C891E51-23CF-4074-B0FB-8068F8981515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="OrderDate">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCA665C-CAD4-4097-8B77-AA38443A08DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer name="OrderDate"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2914650"/>
+              <a:ext cx="3333750" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7F5E24-12B5-4DE3-ADEE-62DDFEF3ADF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1"/>
+              <a:ext cx="1828800" cy="1219200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Item">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10677E0-22C6-4F3B-A925-1DB007ADA5BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Item"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1238250"/>
+              <a:ext cx="1809750" cy="1666875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3932,20 +8336,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3973,18 +8377,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4858,8 +9262,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99C2C43B-4874-42E7-B24E-071397734EDF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99C2C43B-4874-42E7-B24E-071397734EDF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:G6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="164" showAll="0">
       <items count="66">
@@ -4935,8 +9339,8 @@
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="4">
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4977,15 +9381,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -5002,10 +9400,10 @@
       <x v="2"/>
     </i>
     <i>
-      <x/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="4"/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
@@ -5018,11 +9416,11 @@
     <dataField name="Sum of Sale_amt" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
+  <chartFormats count="10">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -5083,6 +9481,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5097,7 +9555,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{334BAEB5-389D-4EC1-987E-E7EB1573ABA2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{334BAEB5-389D-4EC1-987E-E7EB1573ABA2}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="164" showAll="0"/>
@@ -5145,12 +9603,21 @@
     <dataField name="Sum of Sale_amt" fld="8" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5173,7 +9640,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E489020-174D-47CB-9642-33AEDDCA901F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E489020-174D-47CB-9642-33AEDDCA901F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="164" showAll="0"/>
@@ -5220,7 +9687,7 @@
   <dataFields count="1">
     <dataField name="Sum of Units" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5231,6 +9698,15 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5252,21 +9728,64 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{F6F96814-4184-403D-BC4A-7D3F4F16C125}" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="15" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="371167283">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Item" xr10:uid="{F55BE96B-A1E1-4C2B-97C1-9876B6D66A25}" sourceName="Item">
+  <pivotTables>
+    <pivotTable tabId="15" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="371167283">
+      <items count="5">
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Region" xr10:uid="{52F5D851-6D8A-4703-BE5D-59C5865C2032}" cache="Slicer_Region" caption="Region" rowHeight="241300"/>
+  <slicer name="Item" xr10:uid="{2994B9E9-FA4C-4F00-877A-778B3686D057}" cache="Slicer_Item" caption="Item" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0">
   <autoFilter ref="A1:I66" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="8">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{E7FBA8C0-FBFB-4655-B61C-86FC11310A17}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="2">
       <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5593,12 +10112,59 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_OrderDate" xr10:uid="{267C23CF-8385-41F7-9F8F-10B3BB3221CB}" sourceName="OrderDate">
+  <pivotTables>
+    <pivotTable tabId="15" name="PivotTable1"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="371167283" filterType="unknown">
+    <bounds startDate="2018-01-01T00:00:00" endDate="2022-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="OrderDate" xr10:uid="{0E56C9CF-EFD2-4E74-8239-0A63F618F9BE}" cache="NativeTimeline_OrderDate" caption="OrderDate" level="2" selectionLevel="2" scrollPosition="2020-03-01T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C195376-77C2-4E2A-A3BA-B73F2EA5C89E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId3"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5632,18 +10198,18 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
         <v>43106</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -5652,13 +10218,13 @@
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <v>95</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="25">
         <v>1198</v>
       </c>
       <c r="H2" s="15">
@@ -5667,10 +10233,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>43123</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5679,13 +10245,13 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="27">
         <v>50</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <v>500</v>
       </c>
       <c r="H3" s="15">
@@ -5694,10 +10260,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>43140</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5706,13 +10272,13 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="27">
         <v>36</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="25">
         <v>1198</v>
       </c>
       <c r="H4" s="15">
@@ -5721,10 +10287,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="26">
         <v>43157</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5733,13 +10299,13 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="27">
         <v>27</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <v>225</v>
       </c>
       <c r="H5" s="15">
@@ -5748,10 +10314,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>43174</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5760,13 +10326,13 @@
       <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>56</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="25">
         <v>1198</v>
       </c>
       <c r="H6" s="15">
@@ -5774,11 +10340,11 @@
         <v>67088</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>43191</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -5787,13 +10353,13 @@
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="27">
         <v>60</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="25">
         <v>500</v>
       </c>
       <c r="H7" s="15">
@@ -5802,25 +10368,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <v>43208</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="27">
         <v>75</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>1198</v>
       </c>
       <c r="H8" s="15">
@@ -5829,10 +10395,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="26">
         <v>43225</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -5841,13 +10407,13 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <v>90</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="25">
         <v>1198</v>
       </c>
       <c r="H9" s="15">
@@ -5856,25 +10422,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>43242</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="27">
         <v>32</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="25">
         <v>1198</v>
       </c>
       <c r="H10" s="15">
@@ -5882,11 +10448,11 @@
         <v>38336</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>43259</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -5895,13 +10461,13 @@
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="27">
         <v>60</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="25">
         <v>500</v>
       </c>
       <c r="H11" s="15">
@@ -5910,10 +10476,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>43276</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5922,13 +10488,13 @@
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="27">
         <v>90</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="25">
         <v>1198</v>
       </c>
       <c r="H12" s="15">
@@ -5937,25 +10503,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="26">
         <v>43293</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="27">
         <v>29</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="25">
         <v>500</v>
       </c>
       <c r="H13" s="15">
@@ -5964,25 +10530,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="26">
         <v>43310</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="27">
         <v>81</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="25">
         <v>500</v>
       </c>
       <c r="H14" s="15">
@@ -5990,11 +10556,11 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>43327</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -6003,13 +10569,13 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="27">
         <v>35</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>1198</v>
       </c>
       <c r="H15" s="15">
@@ -6018,25 +10584,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="26">
         <v>43344</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="25">
         <v>125</v>
       </c>
       <c r="H16" s="15">
@@ -6044,11 +10610,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
         <v>43361</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -6057,13 +10623,13 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="27">
         <v>16</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="25">
         <v>58.5</v>
       </c>
       <c r="H17" s="15">
@@ -6072,10 +10638,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="26">
         <v>43378</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -6084,13 +10650,13 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="27">
         <v>28</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="25">
         <v>500</v>
       </c>
       <c r="H18" s="15">
@@ -6098,11 +10664,11 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <v>43395</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -6111,13 +10677,13 @@
       <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="27">
         <v>64</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="25">
         <v>225</v>
       </c>
       <c r="H19" s="15">
@@ -6126,10 +10692,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="26">
         <v>43412</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -6138,13 +10704,13 @@
       <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="27">
         <v>15</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="25">
         <v>225</v>
       </c>
       <c r="H20" s="15">
@@ -6153,10 +10719,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="26">
         <v>43429</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6165,13 +10731,13 @@
       <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="27">
         <v>96</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="25">
         <v>58.5</v>
       </c>
       <c r="H21" s="15">
@@ -6180,10 +10746,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="26">
         <v>43446</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -6192,13 +10758,13 @@
       <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="27">
         <v>67</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="25">
         <v>1198</v>
       </c>
       <c r="H22" s="15">
@@ -6207,25 +10773,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="26">
         <v>43463</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="27">
         <v>74</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>58.5</v>
       </c>
       <c r="H23" s="15">
@@ -6234,10 +10800,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="26">
         <v>43480</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -6246,13 +10812,13 @@
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="27">
         <v>46</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="25">
         <v>500</v>
       </c>
       <c r="H24" s="15">
@@ -6261,25 +10827,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="26">
         <v>43497</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="27">
         <v>87</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="25">
         <v>500</v>
       </c>
       <c r="H25" s="15">
@@ -6287,26 +10853,26 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <v>43514</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="27">
         <v>4</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="25">
         <v>500</v>
       </c>
       <c r="H26" s="15">
@@ -6315,10 +10881,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>43531</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -6327,13 +10893,13 @@
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="27">
         <v>7</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="25">
         <v>500</v>
       </c>
       <c r="H27" s="15">
@@ -6342,10 +10908,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="A28" s="26">
         <v>43548</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -6354,13 +10920,13 @@
       <c r="D28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="27">
         <v>50</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="25">
         <v>58.5</v>
       </c>
       <c r="H28" s="15">
@@ -6369,25 +10935,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="26">
         <v>43565</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="27">
         <v>66</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="25">
         <v>1198</v>
       </c>
       <c r="H29" s="15">
@@ -6396,25 +10962,25 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="26">
         <v>43582</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="27">
         <v>96</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="25">
         <v>225</v>
       </c>
       <c r="H30" s="15">
@@ -6423,10 +10989,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="26">
         <v>43599</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -6435,13 +11001,13 @@
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="27">
         <v>53</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="25">
         <v>1198</v>
       </c>
       <c r="H31" s="15">
@@ -6450,10 +11016,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="26">
         <v>43616</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -6462,13 +11028,13 @@
       <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="27">
         <v>80</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="25">
         <v>500</v>
       </c>
       <c r="H32" s="15">
@@ -6477,10 +11043,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="26">
         <v>43633</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -6489,13 +11055,13 @@
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="27">
         <v>5</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="25">
         <v>125</v>
       </c>
       <c r="H33" s="15">
@@ -6503,26 +11069,26 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
         <v>43650</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="27">
         <v>62</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="25">
         <v>58.5</v>
       </c>
       <c r="H34" s="15">
@@ -6531,10 +11097,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="26">
         <v>43667</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -6543,13 +11109,13 @@
       <c r="D35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="27">
         <v>55</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="25">
         <v>58.5</v>
       </c>
       <c r="H35" s="15">
@@ -6558,10 +11124,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+      <c r="A36" s="26">
         <v>43684</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -6570,13 +11136,13 @@
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="27">
         <v>42</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="25">
         <v>58.5</v>
       </c>
       <c r="H36" s="15">
@@ -6585,10 +11151,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="26">
         <v>43701</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -6597,13 +11163,13 @@
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="27">
         <v>3</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="25">
         <v>125</v>
       </c>
       <c r="H37" s="15">
@@ -6612,10 +11178,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+      <c r="A38" s="26">
         <v>43718</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -6624,13 +11190,13 @@
       <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="27">
         <v>7</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="25">
         <v>1198</v>
       </c>
       <c r="H38" s="15">
@@ -6639,10 +11205,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="26">
         <v>43735</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -6651,13 +11217,13 @@
       <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="27">
         <v>76</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="25">
         <v>225</v>
       </c>
       <c r="H39" s="15">
@@ -6666,25 +11232,25 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="26">
         <v>43752</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="27">
         <v>57</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="25">
         <v>500</v>
       </c>
       <c r="H40" s="15">
@@ -6693,25 +11259,25 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+      <c r="A41" s="26">
         <v>43769</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="27">
         <v>14</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="25">
         <v>1198</v>
       </c>
       <c r="H41" s="15">
@@ -6720,10 +11286,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+      <c r="A42" s="26">
         <v>43786</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -6732,13 +11298,13 @@
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="27">
         <v>11</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="25">
         <v>500</v>
       </c>
       <c r="H42" s="15">
@@ -6747,10 +11313,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="26">
         <v>43803</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -6759,13 +11325,13 @@
       <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="27">
         <v>94</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="25">
         <v>500</v>
       </c>
       <c r="H43" s="15">
@@ -6774,25 +11340,25 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="A44" s="26">
         <v>43820</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="27">
         <v>28</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="25">
         <v>500</v>
       </c>
       <c r="H44" s="15">
@@ -6811,16 +11377,17 @@
       <c r="H46" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H23" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8867,12 +13434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5EC0D2-B7FC-48F4-A8C5-DB512AE1DC56}">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,9 +13447,9 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8905,10 +13472,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -8928,10 +13495,10 @@
         <v>342500</v>
       </c>
       <c r="D5" s="19">
+        <v>23049</v>
+      </c>
+      <c r="E5" s="19">
         <v>6075</v>
-      </c>
-      <c r="E5" s="19">
-        <v>23049</v>
       </c>
       <c r="F5" s="19">
         <v>875</v>
@@ -8942,67 +13509,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B6" s="19">
-        <v>269550</v>
+        <v>1124922</v>
       </c>
       <c r="C6" s="19">
-        <v>217500</v>
+        <v>342500</v>
       </c>
       <c r="D6" s="19">
-        <v>75375</v>
+        <v>23049</v>
       </c>
       <c r="E6" s="19">
-        <v>16848</v>
-      </c>
-      <c r="F6" s="19"/>
+        <v>6075</v>
+      </c>
+      <c r="F6" s="19">
+        <v>875</v>
+      </c>
       <c r="G6" s="19">
-        <v>579273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19">
-        <v>172512</v>
-      </c>
-      <c r="C7" s="19">
-        <v>60500</v>
-      </c>
-      <c r="D7" s="19">
-        <v>34200</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
-        <v>375</v>
-      </c>
-      <c r="G7" s="19">
-        <v>267587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="19">
-        <v>1566984</v>
-      </c>
-      <c r="C8" s="19">
-        <v>620500</v>
-      </c>
-      <c r="D8" s="19">
-        <v>115650</v>
-      </c>
-      <c r="E8" s="19">
-        <v>39897</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1250</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2344281</v>
+        <v>1497421</v>
       </c>
     </row>
   </sheetData>
@@ -9011,12 +13536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE30746-7E80-4AC0-A05E-F2AE03A98D5F}">
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9146,12 +13671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4546B3D-05DF-4C7B-A799-142821812F4B}">
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amare\Desktop\Sales_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E957F-69F8-4A00-A2FE-EB3F70850644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C116765-1F13-470C-8083-996AFC0B97D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SaleData" sheetId="19" r:id="rId1"/>
+    <sheet name="Working Sheet" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SaleData!$A$1:$H$23</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="32">
   <si>
     <t>Region</t>
   </si>
@@ -128,6 +129,9 @@
   <si>
     <t>Sale_amt</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,6 +222,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,18 +248,46 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -272,7 +317,169 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFDDDDDD"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFDDDDDD"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -283,6 +490,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0">
+  <autoFilter ref="A1:I66" xr:uid="{E82073F1-1BBF-45A9-8016-498942A604F9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8775465E-4CD0-4D2B-933C-CAB194AF3E38}" name="OrderDate" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{DC4E8014-FD3F-4095-AB7D-B3225AB1090B}" name="Year" dataDxfId="6">
+      <calculatedColumnFormula>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{117B186A-AF54-4D7E-833A-F7A6941DCB62}" name="Region" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E7FBA8C0-FBFB-4655-B61C-86FC11310A17}" name="Manager"/>
+    <tableColumn id="4" xr3:uid="{4590C875-B319-4F1F-9310-B8A1050E0F0C}" name="SalesMan" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{309CE84C-02F5-4E0B-BF55-BECFE9B2BC70}" name="Item" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A2510002-FB66-4484-8D19-190DBA2C020C}" name="Units" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{305D04C5-79CC-46BE-B16C-6BBB32BCC2CD}" name="Unit_price" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{C11891E5-F0E2-4B9F-BCD2-D35ED70A0B37}" name="Sale_amt" dataDxfId="0">
+      <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +872,7 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -651,1179 +880,3231 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="20">
         <v>43106</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="21">
         <v>95</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="19">
         <v>1198</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="15">
         <f>F2*G2</f>
         <v>113810</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="20">
         <v>43123</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="21">
         <v>50</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="19">
         <v>500</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H44" si="0">F3*G3</f>
         <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="20">
         <v>43140</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="21">
         <v>36</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="19">
         <v>1198</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>43128</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="20">
         <v>43157</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="21">
         <v>27</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="19">
         <v>225</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>6075</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="20">
         <v>43174</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="21">
         <v>56</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="19">
         <v>1198</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>67088</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="20">
         <v>43191</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="21">
         <v>60</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="19">
         <v>500</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="20">
         <v>43208</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="21">
         <v>75</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="19">
         <v>1198</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>89850</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="20">
         <v>43225</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="21">
         <v>90</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="19">
         <v>1198</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>107820</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="20">
         <v>43242</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="21">
         <v>32</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="19">
         <v>1198</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>38336</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="20">
         <v>43259</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="21">
         <v>60</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="19">
         <v>500</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="20">
         <v>43276</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="21">
         <v>90</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="19">
         <v>1198</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
         <v>107820</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="20">
         <v>43293</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="21">
         <v>29</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="19">
         <v>500</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="20">
         <v>43310</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="21">
         <v>81</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="19">
         <v>500</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="15">
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="20">
         <v>43327</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="21">
         <v>35</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="19">
         <v>1198</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="15">
         <f t="shared" si="0"/>
         <v>41930</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="20">
         <v>43344</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="19">
         <v>125</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="20">
         <v>43361</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="21">
         <v>16</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="19">
         <v>58.5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="15">
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="20">
         <v>43378</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="21">
         <v>28</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="19">
         <v>500</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="15">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="20">
         <v>43395</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="21">
         <v>64</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="19">
         <v>225</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="15">
         <f t="shared" si="0"/>
         <v>14400</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="20">
         <v>43412</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="21">
         <v>15</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="19">
         <v>225</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="15">
         <f t="shared" si="0"/>
         <v>3375</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="20">
         <v>43429</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="21">
         <v>96</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="19">
         <v>58.5</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="15">
         <f t="shared" si="0"/>
         <v>5616</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="20">
         <v>43446</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="21">
         <v>67</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="19">
         <v>1198</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="15">
         <f t="shared" si="0"/>
         <v>80266</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="20">
         <v>43463</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="21">
         <v>74</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="19">
         <v>58.5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="15">
         <f t="shared" si="0"/>
         <v>4329</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="20">
         <v>43480</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="21">
         <v>46</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="19">
         <v>500</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="15">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="20">
         <v>43497</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="21">
         <v>87</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="19">
         <v>500</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="15">
         <f t="shared" si="0"/>
         <v>43500</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="20">
         <v>43514</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="19">
         <v>500</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="15">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="20">
         <v>43531</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="21">
         <v>7</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="19">
         <v>500</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="15">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="20">
         <v>43548</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="21">
         <v>50</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="19">
         <v>58.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="15">
         <f t="shared" si="0"/>
         <v>2925</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="20">
         <v>43565</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="21">
         <v>66</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="19">
         <v>1198</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="15">
         <f t="shared" si="0"/>
         <v>79068</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="20">
         <v>43582</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="21">
         <v>96</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="19">
         <v>225</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="15">
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="20">
         <v>43599</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="21">
         <v>53</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="19">
         <v>1198</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="15">
         <f t="shared" si="0"/>
         <v>63494</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="20">
         <v>43616</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="21">
         <v>80</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="19">
         <v>500</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="15">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="20">
         <v>43633</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="9">
-        <v>5</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="21">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19">
         <v>125</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="15">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="20">
         <v>43650</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="21">
         <v>62</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="19">
         <v>58.5</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="15">
         <f t="shared" si="0"/>
         <v>3627</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="20">
         <v>43667</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="21">
         <v>55</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="19">
         <v>58.5</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="15">
         <f t="shared" si="0"/>
         <v>3217.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="20">
         <v>43684</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="21">
         <v>42</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="19">
         <v>58.5</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="15">
         <f t="shared" si="0"/>
         <v>2457</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="20">
         <v>43701</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="21">
         <v>3</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="19">
         <v>125</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="15">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="20">
         <v>43718</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="21">
         <v>7</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="19">
         <v>1198</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="15">
         <f t="shared" si="0"/>
         <v>8386</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="20">
         <v>43735</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="21">
         <v>76</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="19">
         <v>225</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="15">
         <f t="shared" si="0"/>
         <v>17100</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="20">
         <v>43752</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="21">
         <v>57</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="19">
         <v>500</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="15">
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="20">
         <v>43769</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="21">
         <v>14</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="19">
         <v>1198</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="15">
         <f t="shared" si="0"/>
         <v>16772</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="20">
         <v>43786</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="21">
         <v>11</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="19">
         <v>500</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="15">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="20">
         <v>43803</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="21">
         <v>94</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="19">
         <v>500</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="15">
         <f t="shared" si="0"/>
         <v>47000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="20">
         <v>43820</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="21">
         <v>28</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="19">
         <v>500</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="15">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{F8FAAA62-C454-468E-8841-439EBEC332FF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>95</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I2" s="15">
+        <f>G2*H2</f>
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <v>500</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I44" si="0">G3*H3</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5">
+        <v>225</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>67088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5">
+        <v>500</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>38336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="5">
+        <v>500</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5">
+        <v>500</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43310</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <v>81</v>
+      </c>
+      <c r="H14" s="5">
+        <v>500</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3">
+        <v>35</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>125</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5">
+        <v>225</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
+        <v>225</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43429</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <v>96</v>
+      </c>
+      <c r="H21" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="0"/>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>67</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="0"/>
+        <v>80266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2018</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <v>74</v>
+      </c>
+      <c r="H23" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46</v>
+      </c>
+      <c r="H24" s="5">
+        <v>500</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
+        <v>87</v>
+      </c>
+      <c r="H25" s="5">
+        <v>500</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>500</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>500</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43548</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
+        <v>50</v>
+      </c>
+      <c r="H28" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="0"/>
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="0"/>
+        <v>79068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43582</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>96</v>
+      </c>
+      <c r="H30" s="5">
+        <v>225</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>53</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="0"/>
+        <v>63494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
+        <v>80</v>
+      </c>
+      <c r="H32" s="5">
+        <v>500</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43633</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>125</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
+        <v>62</v>
+      </c>
+      <c r="H34" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="0"/>
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43667</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
+        <v>55</v>
+      </c>
+      <c r="H35" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="0"/>
+        <v>3217.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43684</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3">
+        <v>42</v>
+      </c>
+      <c r="H36" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="0"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43701</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>125</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="0"/>
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3">
+        <v>76</v>
+      </c>
+      <c r="H39" s="5">
+        <v>225</v>
+      </c>
+      <c r="I39" s="15">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3">
+        <v>57</v>
+      </c>
+      <c r="H40" s="5">
+        <v>500</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="3">
+        <v>14</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="0"/>
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43786</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5">
+        <v>500</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3">
+        <v>94</v>
+      </c>
+      <c r="H43" s="5">
+        <v>500</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43820</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2019</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>28</v>
+      </c>
+      <c r="H44" s="5">
+        <v>500</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="3">
+        <v>95</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I45" s="15">
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>56</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I46" s="15">
+        <v>67088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3">
+        <v>60</v>
+      </c>
+      <c r="H47" s="5">
+        <v>500</v>
+      </c>
+      <c r="I47" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I48" s="15">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="3">
+        <v>90</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I49" s="15">
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3">
+        <v>60</v>
+      </c>
+      <c r="H50" s="5">
+        <v>500</v>
+      </c>
+      <c r="I50" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3">
+        <v>90</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I51" s="15">
+        <v>107820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="3">
+        <v>81</v>
+      </c>
+      <c r="H52" s="5">
+        <v>500</v>
+      </c>
+      <c r="I52" s="15">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3">
+        <v>64</v>
+      </c>
+      <c r="H53" s="5">
+        <v>225</v>
+      </c>
+      <c r="I53" s="15">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3">
+        <v>96</v>
+      </c>
+      <c r="H54" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I54" s="15">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3">
+        <v>67</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I55" s="15">
+        <v>80266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2020</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3">
+        <v>74</v>
+      </c>
+      <c r="H56" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I56" s="15">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="3">
+        <v>87</v>
+      </c>
+      <c r="H57" s="5">
+        <v>500</v>
+      </c>
+      <c r="I57" s="15">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3">
+        <v>66</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I58" s="15">
+        <v>79068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
+        <v>96</v>
+      </c>
+      <c r="H59" s="5">
+        <v>225</v>
+      </c>
+      <c r="I59" s="15">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3">
+        <v>53</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1198</v>
+      </c>
+      <c r="I60" s="15">
+        <v>63494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="3">
+        <v>80</v>
+      </c>
+      <c r="H61" s="5">
+        <v>500</v>
+      </c>
+      <c r="I61" s="15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3">
+        <v>62</v>
+      </c>
+      <c r="H62" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I62" s="15">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3">
+        <v>55</v>
+      </c>
+      <c r="H63" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="I63" s="15">
+        <v>3217.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3">
+        <v>76</v>
+      </c>
+      <c r="H64" s="5">
+        <v>225</v>
+      </c>
+      <c r="I64" s="15">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="3">
+        <v>57</v>
+      </c>
+      <c r="H65" s="5">
+        <v>500</v>
+      </c>
+      <c r="I65" s="15">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[OrderDate]],"YYY")</f>
+        <v>2021</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="3">
+        <v>94</v>
+      </c>
+      <c r="H66" s="5">
+        <v>500</v>
+      </c>
+      <c r="I66" s="18">
+        <v>47000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amare\Desktop\Sales_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD028A-5EE8-4B47-9010-5B3B2E44BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C632A5C-DE53-4C68-B754-A7F02A13FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
